--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DB01E4-E3FB-4A05-8C2A-CFDF6B864C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07355EA8-FEC2-4B55-8134-3EC9FDB3E37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="199">
   <si>
     <t>Run Order</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Vortex Quantization</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -710,6 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1028,8 @@
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -1088,7 +1093,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1109,7 +1117,10 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1130,7 +1141,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1172,7 +1186,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1256,7 +1273,10 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1361,7 +1381,10 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G15" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1385,7 +1408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1406,7 +1429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1427,7 +1450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1448,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1469,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1490,7 +1513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1508,10 +1531,13 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G22" s="5">
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1532,7 +1558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1553,7 +1579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1574,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1595,7 +1621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1616,7 +1642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1637,7 +1663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1658,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1679,7 +1705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1700,7 +1726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2056,12 +2082,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0620BAC-252D-4B86-8662-861A0B701144}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07355EA8-FEC2-4B55-8134-3EC9FDB3E37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F1646-9E07-48EA-9691-7D10D364AA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiers1_3" sheetId="1" r:id="rId1"/>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1165,7 +1165,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1297,7 +1300,10 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G11" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1318,7 +1324,10 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1339,7 +1348,10 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1405,7 +1417,10 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1426,7 +1441,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1447,7 +1465,10 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G18" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1468,7 +1489,10 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1489,7 +1513,10 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1510,7 +1537,10 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G21" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2082,7 +2112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0620BAC-252D-4B86-8662-861A0B701144}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F1646-9E07-48EA-9691-7D10D364AA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919AAA1C-F4E6-4F32-B746-CC8E43F72529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="200">
   <si>
     <t>Run Order</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G23" sqref="G23:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1216,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1234,7 +1240,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1255,7 +1264,10 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1372,7 +1384,10 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -1585,7 +1600,10 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1606,7 +1624,10 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G24" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1627,7 +1648,10 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G25" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1648,7 +1672,10 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G26" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1669,7 +1696,10 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G27" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1690,7 +1720,10 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>199</v>
+      </c>
+      <c r="G28" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1711,7 +1744,10 @@
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G29" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1732,7 +1768,10 @@
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G30" s="5">
+        <v>45953</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919AAA1C-F4E6-4F32-B746-CC8E43F72529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4ABDB4-8298-4C7E-B646-2544EF5068F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G30"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4ABDB4-8298-4C7E-B646-2544EF5068F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB177A7-AAA2-46AE-9C38-B488E97DC21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="199">
   <si>
     <t>Run Order</t>
   </si>
@@ -634,9 +634,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1019,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G32" sqref="G32:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1720,7 +1717,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G28" s="5">
         <v>45953</v>
@@ -1792,7 +1789,10 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G31" s="5">
+        <v>45957</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1813,10 +1813,13 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G32" s="5">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1834,10 +1837,13 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G33" s="5">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1855,7 +1861,10 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="G34" s="5">
+        <v>45957</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB177A7-AAA2-46AE-9C38-B488E97DC21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85583000-42AF-4692-B1FF-8574755FA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tiers4_6" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tiers1_3!$A$1:$L$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tiers1_3!$A$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="203">
   <si>
     <t>Run Order</t>
   </si>
@@ -123,174 +123,93 @@
     <t>REL-07</t>
   </si>
   <si>
-    <t>Polarized Wave Propagation</t>
-  </si>
-  <si>
     <t>REL-08</t>
   </si>
   <si>
-    <t>Gauge Constraint Consistency</t>
-  </si>
-  <si>
     <t>Gravity Analogue</t>
   </si>
   <si>
-    <t>GRAV-09</t>
-  </si>
-  <si>
     <t>Variable‑c Redshift — Weak Gradient</t>
   </si>
   <si>
-    <t>GRAV-10</t>
-  </si>
-  <si>
     <t>Variable‑c Redshift — Strong Gradient</t>
   </si>
   <si>
-    <t>GRAV-11</t>
-  </si>
-  <si>
     <t>Shapiro Delay — Radial</t>
   </si>
   <si>
-    <t>GRAV-12</t>
-  </si>
-  <si>
     <t>Shapiro Delay — Tangential</t>
   </si>
   <si>
-    <t>GRAV-13</t>
-  </si>
-  <si>
     <t>Weak Field Deflection</t>
   </si>
   <si>
-    <t>GRAV-14</t>
-  </si>
-  <si>
     <t>Curvature Gradient Stability</t>
   </si>
   <si>
     <t>Energy Conservation</t>
   </si>
   <si>
-    <t>ENER-15</t>
-  </si>
-  <si>
     <t>Global Conservation — Short Run</t>
   </si>
   <si>
-    <t>ENER-16</t>
-  </si>
-  <si>
     <t>Global Conservation — Long Run</t>
   </si>
   <si>
-    <t>ENER-17</t>
-  </si>
-  <si>
     <t>Wave Integrity — Mild Curvature</t>
   </si>
   <si>
-    <t>ENER-18</t>
-  </si>
-  <si>
     <t>Wave Integrity — Steep Curvature</t>
   </si>
   <si>
-    <t>ENER-19</t>
-  </si>
-  <si>
     <t>Noise‑Driven Equilibrium</t>
   </si>
   <si>
-    <t>ENER-20</t>
-  </si>
-  <si>
     <t>Thermal Mode Diffusion</t>
   </si>
   <si>
-    <t>ENER-21</t>
-  </si>
-  <si>
     <t>Entropy Growth Check</t>
   </si>
   <si>
     <t>Quantization</t>
   </si>
   <si>
-    <t>QUAN-22</t>
-  </si>
-  <si>
     <t>ΔE Transfer — Low Energy</t>
   </si>
   <si>
-    <t>QUAN-23</t>
-  </si>
-  <si>
     <t>ΔE Transfer — High Energy</t>
   </si>
   <si>
-    <t>QUAN-24</t>
-  </si>
-  <si>
     <t>Spectral Linearity — Coarse Steps</t>
   </si>
   <si>
-    <t>QUAN-25</t>
-  </si>
-  <si>
     <t>Spectral Linearity — Fine Steps</t>
   </si>
   <si>
-    <t>QUAN-26</t>
-  </si>
-  <si>
     <t>Phase‑Amplitude Coupling — Low Noise</t>
   </si>
   <si>
-    <t>QUAN-27</t>
-  </si>
-  <si>
     <t>Phase‑Amplitude Coupling — High Noise</t>
   </si>
   <si>
-    <t>QUAN-28</t>
-  </si>
-  <si>
     <t>Nonlinear Wavefront Stability</t>
   </si>
   <si>
-    <t>QUAN-29</t>
-  </si>
-  <si>
     <t>High‑Energy Lattice Blowout Test</t>
   </si>
   <si>
     <t>Quantum / Nonlocal</t>
   </si>
   <si>
-    <t>QNLC-30</t>
-  </si>
-  <si>
     <t>Entanglement Correlation — Short Distance</t>
   </si>
   <si>
-    <t>QNLC-31</t>
-  </si>
-  <si>
     <t>Entanglement Correlation — Long Distance</t>
   </si>
   <si>
-    <t>QNLC-32</t>
-  </si>
-  <si>
     <t>Entanglement — Random Phase Seeds</t>
   </si>
   <si>
-    <t>QNLC-33</t>
-  </si>
-  <si>
     <t>Decoherence Boundary Test</t>
   </si>
   <si>
@@ -634,6 +553,99 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Superposition Principle Test</t>
+  </si>
+  <si>
+    <t>REL-09</t>
+  </si>
+  <si>
+    <t>REL-10</t>
+  </si>
+  <si>
+    <t>GRAV-01</t>
+  </si>
+  <si>
+    <t>GRAV-02</t>
+  </si>
+  <si>
+    <t>GRAV-03</t>
+  </si>
+  <si>
+    <t>GRAV-04</t>
+  </si>
+  <si>
+    <t>GRAV-05</t>
+  </si>
+  <si>
+    <t>GRAV-06</t>
+  </si>
+  <si>
+    <t>ENER-01</t>
+  </si>
+  <si>
+    <t>ENER-02</t>
+  </si>
+  <si>
+    <t>ENER-03</t>
+  </si>
+  <si>
+    <t>ENER-04</t>
+  </si>
+  <si>
+    <t>ENER-05</t>
+  </si>
+  <si>
+    <t>ENER-06</t>
+  </si>
+  <si>
+    <t>ENER-07</t>
+  </si>
+  <si>
+    <t>QUAN-08</t>
+  </si>
+  <si>
+    <t>QUAN-01</t>
+  </si>
+  <si>
+    <t>QUAN-02</t>
+  </si>
+  <si>
+    <t>QUAN-03</t>
+  </si>
+  <si>
+    <t>QUAN-04</t>
+  </si>
+  <si>
+    <t>QUAN-05</t>
+  </si>
+  <si>
+    <t>QUAN-06</t>
+  </si>
+  <si>
+    <t>QUAN-07</t>
+  </si>
+  <si>
+    <t>QNLC-01</t>
+  </si>
+  <si>
+    <t>QNLC-02</t>
+  </si>
+  <si>
+    <t>QNLC-03</t>
+  </si>
+  <si>
+    <t>QNLC-04</t>
+  </si>
+  <si>
+    <t>Phase Independence Test</t>
+  </si>
+  <si>
+    <t>3D Isotropy — Directional Equivalence</t>
+  </si>
+  <si>
+    <t>3D Isotropy — Spherical Symmetry</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:G34"/>
+      <selection activeCell="A4" sqref="A4:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G2" s="5">
         <v>45953</v>
@@ -1101,7 +1113,7 @@
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>A2+1</f>
+        <f>$A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1117,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G3" s="5">
         <v>45953</v>
@@ -1125,7 +1137,7 @@
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A34" si="0">A3+1</f>
+        <f t="shared" ref="A4:A36" si="0">$A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1141,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G4" s="5">
         <v>45953</v>
@@ -1165,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G5" s="5">
         <v>45953</v>
@@ -1189,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G6" s="5">
         <v>45953</v>
@@ -1213,7 +1225,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G7" s="5">
         <v>45953</v>
@@ -1231,13 +1243,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G8" s="5">
         <v>45953</v>
@@ -1252,16 +1264,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G9" s="5">
         <v>45953</v>
@@ -1273,23 +1285,15 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="5">
-        <v>45953</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1297,23 +1301,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="5">
-        <v>45953</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1321,19 +1317,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G12" s="5">
         <v>45953</v>
@@ -1345,19 +1341,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G13" s="5">
         <v>45953</v>
@@ -1369,19 +1365,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G14" s="5">
         <v>45953</v>
@@ -1393,19 +1389,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G15" s="5">
         <v>45953</v>
@@ -1417,19 +1413,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G16" s="5">
         <v>45953</v>
@@ -1441,19 +1437,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G17" s="5">
         <v>45953</v>
@@ -1465,19 +1461,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G18" s="5">
         <v>45953</v>
@@ -1489,19 +1485,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G19" s="5">
         <v>45953</v>
@@ -1513,67 +1509,67 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G20" s="5">
         <v>45953</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G21" s="5">
         <v>45953</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G22" s="5">
         <v>45953</v>
@@ -1585,19 +1581,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G23" s="5">
         <v>45953</v>
@@ -1609,19 +1605,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G24" s="5">
         <v>45953</v>
@@ -1633,19 +1629,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G25" s="5">
         <v>45953</v>
@@ -1657,19 +1653,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G26" s="5">
         <v>45953</v>
@@ -1681,19 +1677,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G27" s="5">
         <v>45953</v>
@@ -1705,19 +1701,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G28" s="5">
         <v>45953</v>
@@ -1729,19 +1725,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G29" s="5">
         <v>45953</v>
@@ -1753,19 +1749,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G30" s="5">
         <v>45953</v>
@@ -1777,22 +1773,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G31" s="5">
-        <v>45957</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1801,22 +1797,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G32" s="5">
-        <v>45957</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1825,19 +1821,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G33" s="5">
         <v>45957</v>
@@ -1849,153 +1845,147 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G34" s="5">
         <v>45957</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <f t="shared" ref="A70:A78" si="1">A69+1</f>
-        <v>1</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>168</v>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="5">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="5">
+        <v>45957</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3" t="s">
-        <v>171</v>
+        <f t="shared" ref="A72:A80" si="1">A71+1</f>
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>16</v>
@@ -2010,19 +2000,19 @@
     <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>16</v>
@@ -2037,19 +2027,19 @@
     <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>16</v>
@@ -2064,19 +2054,19 @@
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>16</v>
@@ -2089,49 +2079,101 @@
       <c r="L78" s="4"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2149,10 +2191,12 @@
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:L81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L83" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2220,13 +2264,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2241,13 +2285,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2262,13 +2306,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -2283,13 +2327,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -2304,13 +2348,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -2325,13 +2369,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -2346,13 +2390,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -2367,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -2388,13 +2432,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -2409,13 +2453,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -2430,13 +2474,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -2451,13 +2495,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -2472,13 +2516,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -2493,13 +2537,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -2514,13 +2558,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -2535,13 +2579,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -2556,13 +2600,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -2577,13 +2621,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -2598,13 +2642,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -2619,13 +2663,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -2640,13 +2684,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -2661,13 +2705,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -2682,13 +2726,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -2703,13 +2747,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -2724,16 +2768,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -2745,16 +2789,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -2766,16 +2810,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -2787,16 +2831,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -2808,16 +2852,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -2829,16 +2873,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -2850,16 +2894,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -2871,13 +2915,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
@@ -2889,13 +2933,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
@@ -2907,13 +2951,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -2928,16 +2972,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85583000-42AF-4692-B1FF-8574755FA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3487D0A2-4503-4DEE-BA19-EB8CFF47B744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tiers1_3" sheetId="1" r:id="rId1"/>
-    <sheet name="Tiers4_6" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tiers1_3!$A$1:$L$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="196">
   <si>
     <t>Run Order</t>
   </si>
@@ -447,9 +446,6 @@
     <t>Parameter Sweep (α, β, χ)</t>
   </si>
   <si>
-    <t>Partial</t>
-  </si>
-  <si>
     <t>Energy Dynamics</t>
   </si>
   <si>
@@ -471,45 +467,27 @@
     <t>Long‑Baseline Entanglement Correlation</t>
   </si>
   <si>
-    <t>Record marginal distributions at A and B to demonstrate no‑signaling.</t>
-  </si>
-  <si>
     <t>QNLC-ENT-02</t>
   </si>
   <si>
     <t>Coherence Length vs Noise (ξ(η,χ))</t>
   </si>
   <si>
-    <t>Δx, Δt, α, β, χ, η sweeps; estimator for ξ; multiple seeds.</t>
-  </si>
-  <si>
-    <t>REL-EM-01</t>
-  </si>
-  <si>
     <t>EM Analogue: Dispersion &amp; Polarization</t>
   </si>
   <si>
-    <t>Δx, Δt, α, β; Sec‑6 EM update; k sweep; polarization tracking.</t>
-  </si>
-  <si>
     <t>GRAV-VARC-01</t>
   </si>
   <si>
     <t>Variable‑c Gravity Analogue: Lensing &amp; Redshift</t>
   </si>
   <si>
-    <t>c(x) profile; beam tracer; timing estimator; gradient sweep.</t>
-  </si>
-  <si>
     <t>HORI-THERM-01</t>
   </si>
   <si>
     <t>Horizon Thermality Analogue</t>
   </si>
   <si>
-    <t>1D/2D c(x) waterfall profile; spectrum sampler; ∇c control.</t>
-  </si>
-  <si>
     <t>Cosmology Analogue</t>
   </si>
   <si>
@@ -519,18 +497,12 @@
     <t>Inflation Analogue via χ(t) Transition</t>
   </si>
   <si>
-    <t>χ(t) schedule; homogeneous initial state; power‑spectrum estimator.</t>
-  </si>
-  <si>
     <t>QUAN-DEX-ROB-01</t>
   </si>
   <si>
     <t>Quantized Exchange Robustness (ΔE_min)</t>
   </si>
   <si>
-    <t>ΔE_min rule; η sweep; mild ∇c; histogram of packet sizes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fluid Dynamics </t>
   </si>
   <si>
@@ -646,13 +618,19 @@
   </si>
   <si>
     <t>3D Isotropy — Spherical Symmetry</t>
+  </si>
+  <si>
+    <t>Not Sure</t>
+  </si>
+  <si>
+    <t>REL-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -672,6 +650,12 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -681,7 +665,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -704,15 +688,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -723,9 +698,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,14 +1006,14 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A36"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
@@ -1105,9 +1080,9 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="5">
+        <v>162</v>
+      </c>
+      <c r="G2" s="4">
         <v>45953</v>
       </c>
     </row>
@@ -1129,15 +1104,15 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="5">
+        <v>162</v>
+      </c>
+      <c r="G3" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A36" si="0">$A3+1</f>
+        <f t="shared" ref="A4:A37" si="0">$A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1153,9 +1128,9 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="5">
+        <v>162</v>
+      </c>
+      <c r="G4" s="4">
         <v>45953</v>
       </c>
     </row>
@@ -1177,9 +1152,9 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="5">
+        <v>162</v>
+      </c>
+      <c r="G5" s="4">
         <v>45953</v>
       </c>
     </row>
@@ -1201,9 +1176,9 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="5">
+        <v>162</v>
+      </c>
+      <c r="G6" s="4">
         <v>45953</v>
       </c>
     </row>
@@ -1225,9 +1200,9 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="5">
+        <v>162</v>
+      </c>
+      <c r="G7" s="4">
         <v>45953</v>
       </c>
     </row>
@@ -1243,15 +1218,15 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="5">
+        <v>162</v>
+      </c>
+      <c r="G8" s="4">
         <v>45953</v>
       </c>
     </row>
@@ -1267,15 +1242,15 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" s="5">
+        <v>162</v>
+      </c>
+      <c r="G9" s="4">
         <v>45953</v>
       </c>
     </row>
@@ -1288,12 +1263,20 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45958</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1304,889 +1287,1662 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
+        <f>A76+1</f>
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" s="5">
-        <v>45953</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>$A11+1</f>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="5">
+        <v>162</v>
+      </c>
+      <c r="G13" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="5">
+        <v>162</v>
+      </c>
+      <c r="G14" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G15" s="5">
+        <v>162</v>
+      </c>
+      <c r="G15" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="5">
+        <v>162</v>
+      </c>
+      <c r="G16" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="5">
+        <v>162</v>
+      </c>
+      <c r="G17" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="5">
+        <v>162</v>
+      </c>
+      <c r="G18" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="5">
+        <v>162</v>
+      </c>
+      <c r="G19" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="5">
+        <v>162</v>
+      </c>
+      <c r="G20" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="5">
+        <v>162</v>
+      </c>
+      <c r="G21" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="5">
+        <v>162</v>
+      </c>
+      <c r="G22" s="4">
         <v>45953</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="5">
+        <v>162</v>
+      </c>
+      <c r="G23" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="5">
+        <v>162</v>
+      </c>
+      <c r="G24" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="5">
+        <v>162</v>
+      </c>
+      <c r="G25" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="5">
+        <v>162</v>
+      </c>
+      <c r="G26" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="5">
+        <v>162</v>
+      </c>
+      <c r="G27" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="5">
+        <v>162</v>
+      </c>
+      <c r="G28" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="5">
+        <v>162</v>
+      </c>
+      <c r="G29" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="5">
+        <v>162</v>
+      </c>
+      <c r="G30" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="5">
+        <v>162</v>
+      </c>
+      <c r="G31" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="5">
+        <v>162</v>
+      </c>
+      <c r="G32" s="4">
         <v>45953</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="5">
-        <v>45957</v>
+        <v>162</v>
+      </c>
+      <c r="G33" s="4">
+        <v>45953</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="5">
+        <v>162</v>
+      </c>
+      <c r="G34" s="4">
         <v>45957</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="5">
+        <v>162</v>
+      </c>
+      <c r="G35" s="4">
         <v>45957</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" t="s">
         <v>57</v>
       </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="4">
         <v>45957</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" ref="A39:A72" si="1">A38+1</f>
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" ref="A72:A80" si="1">A71+1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="A73:A83" si="2">A72+1</f>
+        <v>36</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3" t="s">
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B75" s="4" t="s">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="C75" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B77" s="4" t="s">
+        <f>A12+1</f>
+        <v>41</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="C77" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B78" s="4" t="s">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="C78" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B80" s="4" t="s">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="B80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>78</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>79</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>80</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E83" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2198,796 +2954,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0620BAC-252D-4B86-8662-861A0B701144}">
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A36" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28CBC7E-6FF5-4F8E-BF15-E00663238095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1250B2-1E73-40D0-A9AC-1AE0B2D9CCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>Greg Partin</author>
   </authors>
   <commentList>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{30E302BC-2DA9-4E66-BF56-E9779816DA24}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{30E302BC-2DA9-4E66-BF56-E9779816DA24}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="210">
   <si>
     <t>Run Order</t>
   </si>
@@ -145,24 +145,6 @@
     <t>Gravity Analogue</t>
   </si>
   <si>
-    <t>Variable‑c Redshift — Weak Gradient</t>
-  </si>
-  <si>
-    <t>Variable‑c Redshift — Strong Gradient</t>
-  </si>
-  <si>
-    <t>Shapiro Delay — Radial</t>
-  </si>
-  <si>
-    <t>Shapiro Delay — Tangential</t>
-  </si>
-  <si>
-    <t>Weak Field Deflection</t>
-  </si>
-  <si>
-    <t>Curvature Gradient Stability</t>
-  </si>
-  <si>
     <t>Energy Conservation</t>
   </si>
   <si>
@@ -487,9 +469,6 @@
     <t>Coherence Length vs Noise (ξ(η,χ))</t>
   </si>
   <si>
-    <t>EM Analogue: Dispersion &amp; Polarization</t>
-  </si>
-  <si>
     <t>GRAV-VARC-01</t>
   </si>
   <si>
@@ -637,9 +616,6 @@
     <t>Not Sure</t>
   </si>
   <si>
-    <t>REL-11</t>
-  </si>
-  <si>
     <t>GRAV-07</t>
   </si>
   <si>
@@ -655,34 +631,76 @@
     <t>GRAV-11</t>
   </si>
   <si>
-    <t>Time Dilation - FFT Measurement</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
     <t>Physical Explanation: The lattice is a globally coupled discrete system where all cells communicate through the Laplacian operator. When any disturbance is created, it excites the grid's global eigenmodes - standing wave patterns that span the entire domain. These global modes have frequencies determined by the boundary conditions and grid structure, not just local χ values. Over many timesteps, these global resonances dominate the signal at any measurement point.</t>
   </si>
   <si>
-    <t>Time dilation - uniform χ diagnostic (isolate grid dispersion)</t>
-  </si>
-  <si>
-    <t>Time dilation - 2x refined grid (N=128, dx=0.5)</t>
-  </si>
-  <si>
-    <t>Time dilation - 4x refined grid (N=256, dx=0.25)</t>
-  </si>
-  <si>
     <t>GRAV-12</t>
   </si>
   <si>
-    <t>Time delay through χ slab (Shapiro-like) 3D</t>
-  </si>
-  <si>
-    <t>Time delay through χ slab (Shapiro-like) 1D</t>
-  </si>
-  <si>
     <t>GRAV-07, GRAV-09, GRAV-10 These tests attempt to measure gravitational time dilation by placing two independent oscillators at locations with different χ values and comparing their frequencies via FFT over many timesteps. The test fails because both locations measure the same frequency (~0.13 rad/step) despite having different χ values (0.30 vs 0.14).</t>
+  </si>
+  <si>
+    <t>Local Frequency — Linear χ-Gradient (Weak)</t>
+  </si>
+  <si>
+    <t>Local Frequency — Gaussian Well (Strong Curvature)</t>
+  </si>
+  <si>
+    <t>Local Frequency — Gaussian Well (Broader Potential)</t>
+  </si>
+  <si>
+    <t>Local Frequency — Gaussian Well (Shallow Potential)</t>
+  </si>
+  <si>
+    <t>Local Frequency — Linear χ-Gradient (Moderate)</t>
+  </si>
+  <si>
+    <t>Local Frequency — Gaussian Well (Stable Reference)</t>
+  </si>
+  <si>
+    <t>Time Dilation — Uniform χ Diagnostic</t>
+  </si>
+  <si>
+    <t>Local Frequency — Double Well (ω∝χ Verification)</t>
+  </si>
+  <si>
+    <t>GRAV-13</t>
+  </si>
+  <si>
+    <t>GRAV-15</t>
+  </si>
+  <si>
+    <t>3D Radial Energy Dispersion Visualizer</t>
+  </si>
+  <si>
+    <t>GRAV-14</t>
+  </si>
+  <si>
+    <t>GRAV-16</t>
+  </si>
+  <si>
+    <t>3D Double-Slit Interference</t>
+  </si>
+  <si>
+    <t>Phase Delay — Phase/Group Velocity Mismatch (KLEIN-GORDON QUIRK)</t>
+  </si>
+  <si>
+    <t>Time Dilation — Bound States in Double-Well</t>
+  </si>
+  <si>
+    <t>Time Dilation — 2x Refined Grid (N=128, dx=0.5)</t>
+  </si>
+  <si>
+    <t>Time Dilation — 4x Refined Grid (N=256, dx=0.25)</t>
+  </si>
+  <si>
+    <t>Time Delay — Packet Through χ Slab (Shapiro-Like)</t>
+  </si>
+  <si>
+    <t>Group Delay — Differential Timing (With vs Without Slab)</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1112,7 @@
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" bestFit="1" customWidth="1"/>
@@ -1137,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F2" s="4">
         <v>45953</v>
@@ -1158,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F3" s="4">
         <v>45953</v>
@@ -1166,7 +1184,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A68" si="0">$A3+1</f>
+        <f t="shared" ref="A4:A71" si="0">$A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1179,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F4" s="4">
         <v>45953</v>
@@ -1200,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F5" s="4">
         <v>45953</v>
@@ -1221,7 +1239,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4">
         <v>45953</v>
@@ -1242,7 +1260,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F7" s="4">
         <v>45953</v>
@@ -1260,10 +1278,10 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F8" s="4">
         <v>45953</v>
@@ -1281,10 +1299,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F9" s="4">
         <v>45953</v>
@@ -1299,13 +1317,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4">
         <v>45958</v>
@@ -1320,54 +1338,55 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F11" s="4">
         <v>45958</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>A82+1</f>
-        <v>81</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>138</v>
+        <f>$A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45953</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>$A11+1</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F13" s="4">
         <v>45953</v>
@@ -1376,19 +1395,19 @@
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F14" s="4">
         <v>45953</v>
@@ -1397,19 +1416,19 @@
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F15" s="4">
         <v>45953</v>
@@ -1418,19 +1437,19 @@
     <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F16" s="4">
         <v>45953</v>
@@ -1439,19 +1458,19 @@
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F17" s="4">
         <v>45953</v>
@@ -1460,88 +1479,88 @@
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>155</v>
+        <v>205</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="F18" s="4">
-        <v>45953</v>
+        <v>45959</v>
+      </c>
+      <c r="G18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="F19" s="4">
         <v>45959</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="F20" s="4">
         <v>45959</v>
       </c>
-      <c r="G20" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F21" s="4">
         <v>45959</v>
@@ -1550,19 +1569,19 @@
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" t="s">
-        <v>199</v>
+        <v>185</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F22" s="4">
         <v>45959</v>
@@ -1571,105 +1590,121 @@
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>193</v>
+      <c r="C23" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4"/>
+      <c r="C25" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1679,73 +1714,73 @@
     <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1755,16 +1790,16 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1774,16 +1809,16 @@
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1793,16 +1828,16 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" t="s">
         <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1812,16 +1847,16 @@
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" t="s">
-        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1831,16 +1866,16 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
         <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1850,16 +1885,16 @@
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" t="s">
         <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -1869,16 +1904,16 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
         <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1888,16 +1923,16 @@
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
         <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" t="s">
-        <v>48</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -1907,16 +1942,16 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
         <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" t="s">
-        <v>49</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1926,16 +1961,16 @@
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
         <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" t="s">
-        <v>50</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1945,89 +1980,92 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -2036,16 +2074,16 @@
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -2054,16 +2092,16 @@
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -2072,16 +2110,16 @@
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -2090,16 +2128,16 @@
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -2108,16 +2146,16 @@
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -2126,16 +2164,16 @@
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
         <v>61</v>
-      </c>
-      <c r="C53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" t="s">
-        <v>73</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -2144,16 +2182,16 @@
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -2162,16 +2200,16 @@
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -2180,16 +2218,16 @@
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -2198,16 +2236,16 @@
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -2216,16 +2254,16 @@
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -2234,16 +2272,16 @@
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -2252,16 +2290,16 @@
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -2270,16 +2308,16 @@
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -2288,16 +2326,16 @@
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -2306,16 +2344,16 @@
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -2324,16 +2362,16 @@
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -2342,16 +2380,16 @@
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -2360,16 +2398,16 @@
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
         <v>89</v>
-      </c>
-      <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" t="s">
-        <v>101</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -2378,16 +2416,16 @@
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -2396,16 +2434,16 @@
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -2413,17 +2451,17 @@
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" ref="A69:A89" si="1">$A68+1</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -2431,17 +2469,17 @@
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -2449,17 +2487,17 @@
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -2467,17 +2505,17 @@
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f t="shared" ref="A72:A92" si="1">$A71+1</f>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2486,16 +2524,16 @@
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2504,16 +2542,16 @@
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -2522,16 +2560,16 @@
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -2540,16 +2578,16 @@
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -2558,16 +2596,16 @@
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -2576,130 +2614,124 @@
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>135</v>
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>137</v>
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>140</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -2710,16 +2742,16 @@
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -2730,16 +2762,16 @@
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -2750,60 +2782,117 @@
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>148</v>
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>148</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
       </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>148</v>
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>140</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2820,8 +2909,11 @@
     <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:G89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1250B2-1E73-40D0-A9AC-1AE0B2D9CCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A997D-0144-4AAB-9EAE-EE68AB5C66EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>Greg Partin</author>
   </authors>
   <commentList>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{30E302BC-2DA9-4E66-BF56-E9779816DA24}">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{30E302BC-2DA9-4E66-BF56-E9779816DA24}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="225">
   <si>
     <t>Run Order</t>
   </si>
@@ -701,6 +701,51 @@
   </si>
   <si>
     <t>Group Delay — Differential Timing (With vs Without Slab)</t>
+  </si>
+  <si>
+    <t>REL-11</t>
+  </si>
+  <si>
+    <t>REL-12</t>
+  </si>
+  <si>
+    <t>REL-13</t>
+  </si>
+  <si>
+    <t>REL-14</t>
+  </si>
+  <si>
+    <t>Dispersion Relation — Non-relativistic (χ/k≈10)</t>
+  </si>
+  <si>
+    <t>Dispersion Relation — Weakly Relativistic (χ/k≈1)</t>
+  </si>
+  <si>
+    <t>Dispersion Relation — Relativistic (χ/k≈0.5)</t>
+  </si>
+  <si>
+    <t>Dispersion Relation — Ultra-relativistic (χ/k≈0.1)</t>
+  </si>
+  <si>
+    <t>Shows e=mc2!</t>
+  </si>
+  <si>
+    <t>GRAV-17</t>
+  </si>
+  <si>
+    <t>Gravitational redshift — frequency shift climbing out of χ-well</t>
+  </si>
+  <si>
+    <t>GRAV-18</t>
+  </si>
+  <si>
+    <t>GRAV-19</t>
+  </si>
+  <si>
+    <t>Gravitational redshift — linear gradient (Pound-Rebka analogue)</t>
+  </si>
+  <si>
+    <t>Gravitational redshift — radial χ-profile (Schwarzschild analogue)</t>
   </si>
 </sst>
 </file>
@@ -789,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -799,6 +844,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1232,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A71" si="0">$A3+1</f>
+        <f t="shared" ref="A4:A78" si="0">$A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1351,102 +1399,92 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45960</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45960</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45960</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45960</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16">
         <f>$A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="4">
-        <v>45953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="4">
-        <v>45953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45953</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E16" t="s">
         <v>148</v>
@@ -1458,16 +1496,16 @@
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
         <v>148</v>
@@ -1479,106 +1517,100 @@
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
       </c>
       <c r="F18" s="4">
-        <v>45959</v>
-      </c>
-      <c r="G18" t="s">
-        <v>189</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
         <v>148</v>
       </c>
       <c r="F19" s="4">
-        <v>45959</v>
-      </c>
-      <c r="G19" t="s">
-        <v>187</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
       </c>
       <c r="F20" s="4">
-        <v>45959</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>186</v>
+        <v>195</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
       </c>
       <c r="F21" s="4">
-        <v>45959</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>208</v>
+        <v>181</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>186</v>
@@ -1586,20 +1618,23 @@
       <c r="F22" s="4">
         <v>45959</v>
       </c>
+      <c r="G22" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>204</v>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>148</v>
@@ -1607,23 +1642,26 @@
       <c r="F23" s="4">
         <v>45959</v>
       </c>
+      <c r="G23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>197</v>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" t="s">
+        <v>206</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F24" s="4">
         <v>45959</v>
@@ -1632,16 +1670,16 @@
     <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>209</v>
+      <c r="C25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>186</v>
@@ -1653,19 +1691,19 @@
     <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>199</v>
+      <c r="C26" t="s">
+        <v>185</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F26" s="4">
         <v>45959</v>
@@ -1674,16 +1712,16 @@
     <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>148</v>
@@ -1695,282 +1733,310 @@
     <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="4">
+        <v>45959</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
         <v>162</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D39" t="s">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
       <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45960</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45960</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45960</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1980,16 +2046,16 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1999,16 +2065,16 @@
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -2018,16 +2084,16 @@
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -2037,341 +2103,348 @@
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>41</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
         <v>176</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D53" t="s">
         <v>45</v>
       </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="0"/>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
         <v>46</v>
       </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="C57" t="s">
         <v>53</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D57" t="s">
         <v>54</v>
       </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58">
         <f t="shared" si="0"/>
         <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -2380,16 +2453,16 @@
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -2398,16 +2471,16 @@
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -2416,16 +2489,16 @@
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -2434,16 +2507,16 @@
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -2452,16 +2525,16 @@
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -2470,16 +2543,16 @@
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -2488,16 +2561,16 @@
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -2505,17 +2578,17 @@
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" ref="A72:A92" si="1">$A71+1</f>
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2523,17 +2596,17 @@
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2541,17 +2614,17 @@
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -2559,17 +2632,17 @@
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -2577,17 +2650,17 @@
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -2595,17 +2668,17 @@
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -2613,17 +2686,17 @@
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
+        <v>100</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
@@ -2631,17 +2704,17 @@
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>118</v>
+        <f t="shared" ref="A79:A99" si="1">$A78+1</f>
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" t="s">
+        <v>102</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -2650,16 +2723,16 @@
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>104</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -2668,190 +2741,178 @@
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>129</v>
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" t="s">
+        <v>113</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>131</v>
+        <v>80</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>133</v>
+        <v>81</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>135</v>
+        <v>82</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>140</v>
+        <v>84</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -2860,60 +2921,201 @@
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>141</v>
+        <v>86</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B96" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C97" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:G92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="G12:G15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A997D-0144-4AAB-9EAE-EE68AB5C66EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FD47A3-7853-4056-836C-6DA4DD50E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1850,7 @@
         <v>223</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="F33" s="4">
         <v>45960</v>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FD47A3-7853-4056-836C-6DA4DD50E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA456F4-1242-43BF-835D-0193D1325583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="229">
   <si>
     <t>Run Order</t>
   </si>
@@ -160,15 +160,6 @@
     <t>Wave Integrity — Steep Curvature</t>
   </si>
   <si>
-    <t>Noise‑Driven Equilibrium</t>
-  </si>
-  <si>
-    <t>Thermal Mode Diffusion</t>
-  </si>
-  <si>
-    <t>Entropy Growth Check</t>
-  </si>
-  <si>
     <t>Quantization</t>
   </si>
   <si>
@@ -746,6 +737,27 @@
   </si>
   <si>
     <t>Gravitational redshift — radial χ-profile (Schwarzschild analogue)</t>
+  </si>
+  <si>
+    <t>Hamiltonian partitioning — χ-gradient field (energy flow in curved spacetime)</t>
+  </si>
+  <si>
+    <t>Hamiltonian partitioning — uniform χ (KE ↔ GE flow)</t>
+  </si>
+  <si>
+    <t>Hamiltonian partitioning — with mass term (KE ↔ GE ↔ PE flow)</t>
+  </si>
+  <si>
+    <t>ENER-10</t>
+  </si>
+  <si>
+    <t>Dissipation — weak damping (exponential decay, γ=1e-3 per unit time)</t>
+  </si>
+  <si>
+    <t>Dissipation — strong damping (exponential decay, γ=1e-2 per unit time)</t>
+  </si>
+  <si>
+    <t>Thermalization — noise + damping reaches steady state</t>
   </si>
 </sst>
 </file>
@@ -1149,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1203,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4">
         <v>45953</v>
@@ -1224,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F3" s="4">
         <v>45953</v>
@@ -1232,7 +1244,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A78" si="0">$A3+1</f>
+        <f t="shared" ref="A4:A81" si="0">$A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1245,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F4" s="4">
         <v>45953</v>
@@ -1266,7 +1278,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F5" s="4">
         <v>45953</v>
@@ -1287,7 +1299,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4">
         <v>45953</v>
@@ -1308,7 +1320,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F7" s="4">
         <v>45953</v>
@@ -1326,10 +1338,10 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F8" s="4">
         <v>45953</v>
@@ -1347,10 +1359,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F9" s="4">
         <v>45953</v>
@@ -1365,13 +1377,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F10" s="4">
         <v>45958</v>
@@ -1386,13 +1398,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F11" s="4">
         <v>45958</v>
@@ -1403,19 +1415,19 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F12" s="4">
         <v>45960</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1423,13 +1435,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F13" s="4">
         <v>45960</v>
@@ -1441,13 +1453,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F14" s="4">
         <v>45960</v>
@@ -1459,13 +1471,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F15" s="4">
         <v>45960</v>
@@ -1481,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F16" s="4">
         <v>45953</v>
@@ -1502,13 +1514,13 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F17" s="4">
         <v>45953</v>
@@ -1523,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F18" s="4">
         <v>45953</v>
@@ -1544,13 +1556,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F19" s="4">
         <v>45953</v>
@@ -1565,13 +1577,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F20" s="4">
         <v>45953</v>
@@ -1586,13 +1598,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F21" s="4">
         <v>45953</v>
@@ -1607,19 +1619,19 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F22" s="4">
         <v>45959</v>
       </c>
       <c r="G22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1631,19 +1643,19 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F23" s="4">
         <v>45959</v>
       </c>
       <c r="G23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1655,13 +1667,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="D24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="F24" s="4">
         <v>45959</v>
@@ -1676,13 +1688,13 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F25" s="4">
         <v>45959</v>
@@ -1697,13 +1709,13 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="4">
         <v>45959</v>
@@ -1718,13 +1730,13 @@
         <v>23</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F27" s="4">
         <v>45959</v>
@@ -1739,13 +1751,13 @@
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F28" s="4">
         <v>45959</v>
@@ -1760,13 +1772,13 @@
         <v>23</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F29" s="4">
         <v>45959</v>
@@ -1781,13 +1793,13 @@
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F30" s="4">
         <v>45959</v>
@@ -1802,13 +1814,13 @@
         <v>23</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F31" s="4">
         <v>45959</v>
@@ -1823,13 +1835,13 @@
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F32" s="4">
         <v>45960</v>
@@ -1844,13 +1856,13 @@
         <v>23</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F33" s="4">
         <v>45960</v>
@@ -1865,13 +1877,13 @@
         <v>23</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F34" s="4">
         <v>45960</v>
@@ -1886,13 +1898,13 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F35" s="4">
         <v>45960</v>
@@ -1907,13 +1919,13 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F36" s="4">
         <v>45960</v>
@@ -1928,13 +1940,13 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F37" s="4">
         <v>45960</v>
@@ -1949,13 +1961,13 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F38" s="4">
         <v>45960</v>
@@ -1970,13 +1982,13 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F39" s="4">
         <v>45960</v>
@@ -1991,13 +2003,13 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F40" s="4">
         <v>45960</v>
@@ -2005,20 +2017,20 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f>$A40+1</f>
         <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F41" s="4">
         <v>45960</v>
@@ -2026,74 +2038,80 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A42:A102" si="1">$A41+1</f>
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
+        <v>24</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="4">
+        <v>45960</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>167</v>
+        <v>24</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45960</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>168</v>
+        <v>24</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45960</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -2102,17 +2120,17 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -2121,17 +2139,17 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
         <v>32</v>
-      </c>
-      <c r="C47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" t="s">
-        <v>38</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -2140,17 +2158,17 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -2159,17 +2177,17 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -2178,17 +2196,17 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -2197,17 +2215,17 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -2216,17 +2234,17 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -2235,90 +2253,93 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" t="s">
         <v>41</v>
       </c>
-      <c r="C53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>50</v>
-      </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -2326,17 +2347,17 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -2344,17 +2365,17 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -2362,17 +2383,17 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -2380,17 +2401,17 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -2398,17 +2419,17 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
         <v>55</v>
       </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -2416,17 +2437,17 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -2434,17 +2455,17 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -2452,17 +2473,17 @@
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -2470,17 +2491,17 @@
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -2488,17 +2509,17 @@
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -2506,17 +2527,17 @@
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -2524,17 +2545,17 @@
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -2542,17 +2563,17 @@
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -2560,17 +2581,17 @@
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -2578,17 +2599,17 @@
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2596,17 +2617,17 @@
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2614,17 +2635,17 @@
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -2632,17 +2653,17 @@
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
         <v>83</v>
       </c>
-      <c r="C75" t="s">
-        <v>92</v>
-      </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -2650,17 +2671,17 @@
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -2668,17 +2689,17 @@
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -2686,17 +2707,17 @@
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D78" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
@@ -2704,17 +2725,17 @@
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" ref="A79:A99" si="1">$A78+1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -2726,13 +2747,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -2744,13 +2765,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -2762,13 +2783,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -2780,13 +2801,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -2798,13 +2819,13 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -2815,14 +2836,14 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>116</v>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" t="s">
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -2833,14 +2854,14 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>118</v>
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -2851,14 +2872,14 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>120</v>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" t="s">
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -2870,113 +2891,107 @@
         <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>129</v>
+      <c r="B91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>131</v>
+      <c r="B92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>133</v>
+      <c r="B93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -2984,13 +2999,13 @@
         <v>89</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -3004,13 +3019,13 @@
         <v>90</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -3024,13 +3039,13 @@
         <v>91</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -3038,81 +3053,141 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E102" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:G99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="G12:G15"/>
   </mergeCells>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA456F4-1242-43BF-835D-0193D1325583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9B6126-AA28-4FB8-A99B-29D28E8A6DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="231">
   <si>
     <t>Run Order</t>
   </si>
@@ -758,6 +758,12 @@
   </si>
   <si>
     <t>Thermalization — noise + damping reaches steady state</t>
+  </si>
+  <si>
+    <t>GRAV-20</t>
+  </si>
+  <si>
+    <t>Self-consistent chi from E-energy (Poisson) — verify omega≈chi at center (1D)</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1250,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A81" si="0">$A3+1</f>
+        <f t="shared" ref="A4:A41" si="0">$A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1890,39 +1896,31 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="4">
-        <v>45960</v>
-      </c>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>$A34+1</f>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
         <v>145</v>
@@ -1934,16 +1932,16 @@
     <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
         <v>145</v>
@@ -1955,16 +1953,16 @@
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
@@ -1976,16 +1974,16 @@
     <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
         <v>145</v>
@@ -1994,19 +1992,19 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>224</v>
+        <v>159</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
       </c>
       <c r="E40" t="s">
         <v>145</v>
@@ -2017,17 +2015,17 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>$A40+1</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" t="s">
-        <v>222</v>
+        <v>160</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
@@ -2038,19 +2036,19 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" ref="A42:A102" si="1">$A41+1</f>
-        <v>37</v>
+        <f>$A41+1</f>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>121</v>
+      <c r="C42" t="s">
+        <v>161</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" t="s">
         <v>145</v>
       </c>
       <c r="F42" s="4">
@@ -2059,17 +2057,17 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" ref="A43:A103" si="1">$A42+1</f>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>145</v>
@@ -2081,16 +2079,16 @@
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>145</v>
@@ -2102,35 +2100,37 @@
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
-        <v>163</v>
+        <v>24</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="4">
+        <v>45960</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -2140,16 +2140,16 @@
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -2159,16 +2159,16 @@
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -2178,16 +2178,16 @@
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -2197,16 +2197,16 @@
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -2216,16 +2216,16 @@
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -2235,16 +2235,16 @@
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -2254,16 +2254,16 @@
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -2273,16 +2273,16 @@
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -2292,16 +2292,16 @@
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -2311,53 +2311,54 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
       </c>
       <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
         <v>173</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>42</v>
       </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" t="s">
-        <v>45</v>
-      </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -2366,16 +2367,16 @@
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
         <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -2384,16 +2385,16 @@
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -2402,16 +2403,16 @@
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -2420,16 +2421,16 @@
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -2438,16 +2439,16 @@
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -2456,16 +2457,16 @@
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -2474,16 +2475,16 @@
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -2492,16 +2493,16 @@
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -2510,16 +2511,16 @@
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -2528,16 +2529,16 @@
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -2546,16 +2547,16 @@
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
         <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -2564,16 +2565,16 @@
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -2582,16 +2583,16 @@
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -2600,16 +2601,16 @@
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2618,16 +2619,16 @@
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2636,16 +2637,16 @@
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -2654,16 +2655,16 @@
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -2672,16 +2673,16 @@
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -2690,16 +2691,16 @@
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -2708,16 +2709,16 @@
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
@@ -2726,16 +2727,16 @@
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -2744,16 +2745,16 @@
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -2762,16 +2763,16 @@
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -2780,16 +2781,16 @@
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -2798,16 +2799,16 @@
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -2816,16 +2817,16 @@
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
         <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -2834,16 +2835,16 @@
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -2852,16 +2853,16 @@
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
         <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -2870,16 +2871,16 @@
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
         <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -2888,16 +2889,16 @@
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -2906,16 +2907,16 @@
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -2924,16 +2925,16 @@
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -2942,34 +2943,34 @@
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -2978,16 +2979,16 @@
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -2996,36 +2997,34 @@
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>126</v>
+        <v>88</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -3036,16 +3035,16 @@
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -3056,16 +3055,16 @@
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
@@ -3076,16 +3075,16 @@
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -3096,16 +3095,16 @@
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -3116,34 +3115,36 @@
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
@@ -3152,22 +3153,39 @@
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3186,8 +3204,9 @@
     <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:G102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="G12:G15"/>
   </mergeCells>

--- a/documents/LFM_Test_Plan.xlsx
+++ b/documents/LFM_Test_Plan.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LFM\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9B6126-AA28-4FB8-A99B-29D28E8A6DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EA3526-54C5-4161-BF08-F60128F83948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Legal" sheetId="2" r:id="rId1"/>
+    <sheet name="Tests" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$1:$G$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests!$A$1:$G$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="257">
   <si>
     <t>Run Order</t>
   </si>
@@ -764,13 +765,91 @@
   </si>
   <si>
     <t>Self-consistent chi from E-energy (Poisson) — verify omega≈chi at center (1D)</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Lattice-Field Medium (LFM): Phase 1 Test Plan — Legal &amp; Licensing Notice</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>3.0 — 2025-11-01 (Defensive ND Release)</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Greg D. Partin</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution–NonCommercial–NoDerivatives 4.0 International (CC BY-NC-ND 4.0)</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>© 2025 Greg D. Partin. All rights reserved. “Lattice-Field Medium,” “LFM Equation,” and “LFM Research Framework” are original works authored by Greg D. Partin.</t>
+  </si>
+  <si>
+    <t>Derivative-Use Restriction</t>
+  </si>
+  <si>
+    <t>No portion of this file, its data structures, thresholds, or validation parameters may be reproduced, modified, or adapted for any commercial, proprietary, or patent-filing purpose without prior written authorization. “Commercial” includes any research or prototype development intended for monetization, commercialization, or patent application.</t>
+  </si>
+  <si>
+    <t>Defensive Publication Statement</t>
+  </si>
+  <si>
+    <t>This file forms part of the LFM Phase 1 Defensive Disclosure establishing prior art as of October 29 2025 for all concepts, algorithms, and methods described in the LFM project suite. Its release prevents any later exclusive patent claim over identical or equivalent formulations of the LFM framework or its test architecture.</t>
+  </si>
+  <si>
+    <t>Redistribution Boundary</t>
+  </si>
+  <si>
+    <t>All content is disclosed solely for scientific reproducibility. No reuse, adaptation, or redistribution in derivative software or datasets is granted without written permission of the author.</t>
+  </si>
+  <si>
+    <t>Trademark Notice</t>
+  </si>
+  <si>
+    <t>“Lattice-Field Medium,” “LFM Research,” and “LFM Equation” are distinctive marks identifying this body of work. Unauthorized use of these names in promotional, academic, or product contexts is prohibited.</t>
+  </si>
+  <si>
+    <t>Citation (Zenodo Record)</t>
+  </si>
+  <si>
+    <t>Partin, G. D. (2025). Lattice-Field Medium (LFM): A Deterministic Lattice Framework for Emergent Relativity, Gravitation, and Quantization — Phase 1 Conceptual Hypothesis v1.0. Zenodo. https://doi.org/10.5281/zenodo.17478758</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>gpartin@gmail.com</t>
+  </si>
+  <si>
+    <t>Revision Notes</t>
+  </si>
+  <si>
+    <t>• Unified license to CC BY-NC-ND 4.0 (No Derivatives).</t>
+  </si>
+  <si>
+    <t>• Added authorship and defensive-publication clauses.</t>
+  </si>
+  <si>
+    <t>• Embedded legal metadata for distribution integrity within the Excel package.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -816,13 +895,33 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -849,10 +948,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -865,8 +965,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1166,10 +1280,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54468D4-E4E1-4B20-88B5-FE94AE9011CA}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="71.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://doi.org/10.5281/zenodo.17478758" xr:uid="{07EE928B-E0C9-4C38-91DD-C9444C64BD19}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
